--- a/biology/Botanique/Jardin_Hans-et-Sophie-Scholl/Jardin_Hans-et-Sophie-Scholl.xlsx
+++ b/biology/Botanique/Jardin_Hans-et-Sophie-Scholl/Jardin_Hans-et-Sophie-Scholl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le jardin Hans-et-Sophie-Scholl est un espace vert municipal du 17e arrondissement de Paris, situé au 20, boulevard du Bois-le-Prêtre[1]. 
+Le jardin Hans-et-Sophie-Scholl est un espace vert municipal du 17e arrondissement de Paris, situé au 20, boulevard du Bois-le-Prêtre. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ouvert en 2020, il se situe au centre de la place Pouchet[2], entre le boulevard du Bois-le-Prêtre, la rue Floréal et la rue Hélène-et-François-Missoffe, face à la rue Andrée-Putman et à la tour Bois-le-Prêtre.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ouvert en 2020, il se situe au centre de la place Pouchet, entre le boulevard du Bois-le-Prêtre, la rue Floréal et la rue Hélène-et-François-Missoffe, face à la rue Andrée-Putman et à la tour Bois-le-Prêtre.
 Le jardin est desservi à distance par la ligne 3b du tramway d'Île-de-France.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il doit son nom à Hans Scholl et Sophie Scholl, frère et sœur, membres du réseau La Rose blanche de la Résistance allemande au nazisme, exécutés en 1943.
 </t>
